--- a/medicine/Enfance/Prix_Michael_L._Printz/Prix_Michael_L._Printz.xlsx
+++ b/medicine/Enfance/Prix_Michael_L._Printz/Prix_Michael_L._Printz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix Michael L. Printz, aussi appelé prix Printz (Michael L. Printz Award) est un prix littéraire de l'American Library Association qui récompense chaque année le meilleur livre écrit pour les adolescents, entièrement basé sur sa valeur littéraire. 
-Le prix est commandité par le magazine Booklist (en), administré par la division des jeunes adultes de l'American Library Association, la Young Adult Library Services Association (en) (YALSA), et nommé en l'honneur de Mike Printz, bibliothécaire scolaire de Topeka (Kansas), un membre actif de longue date de la YALSA[1].
+Le prix est commandité par le magazine Booklist (en), administré par la division des jeunes adultes de l'American Library Association, la Young Adult Library Services Association (en) (YALSA), et nommé en l'honneur de Mike Printz, bibliothécaire scolaire de Topeka (Kansas), un membre actif de longue date de la YALSA.
 Jusqu'à quatre finalistes peuvent être désignés livres d'honneur et trois ou quatre ont été nommés chaque année.
 </t>
         </is>
@@ -514,11 +526,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Printz a été créé en 2000 pour les publications de 1999[2]. Le Prix Printz a été créé en complément à la médaille Newbery (un prix littéraire décerné chaque année par l'Association for Library Service to Children (en), une branche de l'American Library Association à l'auteur du meilleur livre américain pour enfants) afin de récompenser les meilleures et les plus belles œuvres littéraires écrites pour jeunes adultes[3].
-Qui était Michael L. Printz ?
-Michael L. Printz a été bibliothécaire à l'école secondaire Topeka West High School de Topeka, au Kansas, jusqu'à sa retraite en 1994[4]. Il a également été un membre actif de la YALSA, siégeant au Best Books for Young Adults Committee et au Margaret A. Edwards Award Committee[5]. Il a consacré sa vie à assurer aux élèves un bon accès à la littérature. À cette fin, il a encouragé les écrivains à s'intéresser aux jeune public adulte. Il a créé un programme d'auteur en résidence à son école secondaire pour promouvoir les nouveaux talents et encourager ses élèves. Sa découverte la plus remarquable est celle de Chris Crutcher[2]. Printz, décédé à l'âge de 59 ans en 1996[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Printz a été créé en 2000 pour les publications de 1999. Le Prix Printz a été créé en complément à la médaille Newbery (un prix littéraire décerné chaque année par l'Association for Library Service to Children (en), une branche de l'American Library Association à l'auteur du meilleur livre américain pour enfants) afin de récompenser les meilleures et les plus belles œuvres littéraires écrites pour jeunes adultes.
 </t>
         </is>
       </c>
@@ -544,13 +556,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Qui était Michael L. Printz ?</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael L. Printz a été bibliothécaire à l'école secondaire Topeka West High School de Topeka, au Kansas, jusqu'à sa retraite en 1994. Il a également été un membre actif de la YALSA, siégeant au Best Books for Young Adults Committee et au Margaret A. Edwards Award Committee. Il a consacré sa vie à assurer aux élèves un bon accès à la littérature. À cette fin, il a encouragé les écrivains à s'intéresser aux jeune public adulte. Il a créé un programme d'auteur en résidence à son école secondaire pour promouvoir les nouveaux talents et encourager ses élèves. Sa découverte la plus remarquable est celle de Chris Crutcher. Printz, décédé à l'âge de 59 ans en 1996.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prix_Michael_L._Printz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Michael_L._Printz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Critères et procédures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Source : "Politiques et procédures relatives au Prix Michael-L.-Printz "[7].
-Le comité de sélection est composé de neuf membres de la Young Adult Library Services Association (en) (une division de l'American Library Association) nommés par le président pour un mandat d'un an. Le comité de sélection identifie jusqu'à 5 finalistes parmi lesquels il choisit un gagnant[2]. Le terme jeune adulte désigne un lecteur âgé de 12 à 18 ans aux fins de ce prix[8]. Le prix Michael L. Printz est commandité par Booklist (en), une publication de l'American Library Association[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Source : "Politiques et procédures relatives au Prix Michael-L.-Printz ".
+Le comité de sélection est composé de neuf membres de la Young Adult Library Services Association (en) (une division de l'American Library Association) nommés par le président pour un mandat d'un an. Le comité de sélection identifie jusqu'à 5 finalistes parmi lesquels il choisit un gagnant. Le terme jeune adulte désigne un lecteur âgé de 12 à 18 ans aux fins de ce prix. Le prix Michael L. Printz est commandité par Booklist (en), une publication de l'American Library Association.
 Les critères pour choisir les finalistes et le gagnant sont :
 les livres de non-fiction, de fiction, de poésie et d'anthologies sont éligibles ;
 les livres doivent avoir été publiés entre le 1er janvier et le 31 décembre de l'année précédant l'annonce du prix ;
@@ -561,33 +612,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Prix_Michael_L._Printz</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Prix_Michael_L._Printz</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Récipiendaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Printz a été décernée chaque année depuis sa création en 2000. Personne ne l'a gagné deux fois, bien que certains auteurs aient reçu le prix pour un livre et ont été finaliste pour un ou plusieurs autres livres[10],[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Printz a été décernée chaque année depuis sa création en 2000. Personne ne l'a gagné deux fois, bien que certains auteurs aient reçu le prix pour un livre et ont été finaliste pour un ou plusieurs autres livres,.
 </t>
         </is>
       </c>
